--- a/Johy咖啡.xlsx
+++ b/Johy咖啡.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Johy Cafe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Johy Cafe" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -855,6 +855,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1119,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA121"/>
+  <dimension ref="A1:BA128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
@@ -23421,6 +23489,1017 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>1652.90</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>107.20</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>107.20</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>1545.70</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>107.2</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>1652.90</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>107.20</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>107.20</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>1545.70</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI123" t="inlineStr">
+        <is>
+          <t>107.2</t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>2083.93</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>53.60</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>53.60</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>2030.33</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI124" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>2077.42</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>161.60</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>161.60</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>1926.62</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI125" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL125" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2077.42</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>161.60</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>161.60</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>1926.62</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI126" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AK128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL128" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
